--- a/database.xlsx
+++ b/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,35 +671,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>An Introduction to the Theory of Groups - Joseph J. Rotman (1995, Springer) 4th Edition.pdf</t>
+          <t>An Introduction to Analysis - Gerald G. Bilodeau, Paul R. Thie, G. E. Kenough (2010, Jones and Bartlett) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An Introduction to the Theory of Groups</t>
+          <t>An Introduction to Analysis</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Joseph J. Rotman</t>
+          <t>Gerald G. Bilodeau, Paul R. Thie, G. E. Kenough</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1d_hP2QTHhxXGxBdrbbwGcXTGD0Px9CRE/view)</t>
+          <t>[Drive](https://drive.google.com/file/d/1t3svnhU23xaq6IcewyC_F7qoNYv4eEAB/view)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Jones and Bartlett</t>
         </is>
       </c>
     </row>
@@ -709,31 +709,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Applied Abstract Algebra - Rudolf Lidl, Günter Pilz (1998, Springer) 2nd Edition.pdf</t>
+          <t>An Introduction to the Theory of Groups - Joseph J. Rotman (1995, Springer) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Applied Abstract Algebra</t>
+          <t>An Introduction to the Theory of Groups</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rudolf Lidl, Günter Pilz</t>
+          <t>Joseph J. Rotman</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applied%20Abstract%20Algebra%20-%20Rudolf%20Lidl%2C%20G%C3%BCnter%20Pilz%20%281998%2C%20Springer%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1d_hP2QTHhxXGxBdrbbwGcXTGD0Px9CRE/view)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Applying Math with Python - Sam Morley (2022, Packt) 2nd Edition.pdf</t>
+          <t>Applied Abstract Algebra - Rudolf Lidl, Günter Pilz (1998, Springer) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Applying Math with Python</t>
+          <t>Applied Abstract Algebra</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sam Morley</t>
+          <t>Rudolf Lidl, Günter Pilz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applying%20Math%20with%20Python%20-%20Sam%20Morley%20%282022%2C%20Packt%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applied%20Abstract%20Algebra%20-%20Rudolf%20Lidl%2C%20G%C3%BCnter%20Pilz%20%281998%2C%20Springer%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,11 +771,11 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Packt</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -785,35 +785,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Calculus - Howard Anton, Irl Bivens, Stephen Davis (2012, Wiley) 10th Edition.pdf</t>
+          <t>Applying Math with Python - Sam Morley (2022, Packt) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Calculus</t>
+          <t>Applying Math with Python</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Howard Anton, Irl Bivens, Stephen Davis</t>
+          <t>Sam Morley</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Calculus%20-%20Howard%20Anton%2C%20Irl%20Bivens%2C%20Stephen%20Davis%20%282012%2C%20Wiley%29%2010th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applying%20Math%20with%20Python%20-%20Sam%20Morley%20%282022%2C%20Packt%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Packt</t>
         </is>
       </c>
     </row>
@@ -823,31 +823,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calculus - One-Variable Calculus with an Introduction to Linear Algebra - Tom M. Apostol (1967, Wiley) 2nd Edition Vol I.pdf</t>
+          <t>Calculus - Howard Anton, Irl Bivens, Stephen Davis (2012, Wiley) 10th Edition.pdf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Calculus: One-Variable Calculus with an Introduction to Linear Algebra</t>
+          <t>Calculus</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tom M. Apostol</t>
+          <t>Howard Anton, Irl Bivens, Stephen Davis</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/17-8xwX4H_W3R6H63dPH6T2P9wFMLGiuV/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Calculus%20-%20Howard%20Anton%2C%20Irl%20Bivens%2C%20Stephen%20Davis%20%282012%2C%20Wiley%29%2010th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2nd, Vol I</t>
+          <t>10th</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1967</v>
+        <v>2012</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -861,35 +861,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Complex Numbers from A to ... Z - Titu Andreescu, Dorin Andrica (2014, Birkhäuser) 2nd Edition.pdf</t>
+          <t>Calculus - One-Variable Calculus with an Introduction to Linear Algebra - Tom M. Apostol (1967, Wiley) 2nd Edition Vol I.pdf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Complex Numbers from A to ... Z</t>
+          <t>Calculus: One-Variable Calculus with an Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Titu Andreescu, Dorin Andrica</t>
+          <t>Tom M. Apostol</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Complex%20Numbers%20from%20A%20to%20...%20Z%20-%20Titu%20Andreescu%2C%20Dorin%20Andrica%20%282014%2C%20Birkh%C3%A4user%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/17-8xwX4H_W3R6H63dPH6T2P9wFMLGiuV/view)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>2nd, Vol I</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2014</v>
+        <v>1967</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Birkhäuser</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -899,35 +899,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Contemporary Abstract Algebra - Joseph Gallian (2017, Cengage) 9th Edition.pdf</t>
+          <t>Complex Numbers from A to ... Z - Titu Andreescu, Dorin Andrica (2014, Birkhäuser) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Contemporary Abstract Algebra</t>
+          <t>Complex Numbers from A to ... Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Joseph Gallian</t>
+          <t>Titu Andreescu, Dorin Andrica</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Contemporary%20Abstract%20Algebra%20-%20Joseph%20Gallian%20%282017%2C%20Cengage%29%209th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Complex%20Numbers%20from%20A%20to%20...%20Z%20-%20Titu%20Andreescu%2C%20Dorin%20Andrica%20%282014%2C%20Birkh%C3%A4user%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cengage</t>
+          <t>Birkhäuser</t>
         </is>
       </c>
     </row>
@@ -937,35 +937,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Differential Calculus - Dr. Gorakh Prasad (2016, Pothishala) 19th Edition.pdf</t>
+          <t>Contemporary Abstract Algebra - Joseph Gallian (2017, Cengage) 9th Edition.pdf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Differential Calculus</t>
+          <t>Contemporary Abstract Algebra</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dr. Gorakh Prasad</t>
+          <t>Joseph Gallian</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1iD277hxbqSSqPHbgD8cnE2WCBQLuE603/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Contemporary%20Abstract%20Algebra%20-%20Joseph%20Gallian%20%282017%2C%20Cengage%29%209th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19th</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pothishala</t>
+          <t>Cengage</t>
         </is>
       </c>
     </row>
@@ -975,35 +975,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Differential Equations - Shepley L. Ross (1984, Wiley) 3rd Edition.pdf</t>
+          <t>Differential Calculus - Dr. Gorakh Prasad (2016, Pothishala) 19th Edition.pdf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Differential Calculus</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shepley L. Ross</t>
+          <t>Dr. Gorakh Prasad</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/19ApBnoAd7LlHEJ3D-igEHjpq2hqBV-ku/view)</t>
+          <t>[Drive](https://drive.google.com/file/d/1iD277hxbqSSqPHbgD8cnE2WCBQLuE603/view)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>19th</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1984</v>
+        <v>2016</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Pothishala</t>
         </is>
       </c>
     </row>
@@ -1013,35 +1013,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems - Computing and Modeling -  C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
+          <t>Differential Equations - Shepley L. Ross (1984, Wiley) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems: Computing and Modeling</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C. Henry Edwards, David E. Penney, David T. Calvis</t>
+          <t>Shepley L. Ross</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Boundary%20Value%20Problems%20-%20Computing%20and%20Modeling%20-%20%20C.%20Henry%20Edwards%2C%20David%20E.%20Penney%2C%20David%20T.%20Calvis%20%282015%2C%20Pearson%29%205th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/19ApBnoAd7LlHEJ3D-igEHjpq2hqBV-ku/view)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2015</v>
+        <v>1984</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1051,35 +1051,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
+          <t>Differential Equations and Boundary Value Problems - Computing and Modeling -  C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes</t>
+          <t>Differential Equations and Boundary Value Problems: Computing and Modeling</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>George F. Simmons</t>
+          <t xml:space="preserve"> C. Henry Edwards, David E. Penney, David T. Calvis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Boundary%20Value%20Problems%20-%20Computing%20and%20Modeling%20-%20%20C.%20Henry%20Edwards%2C%20David%20E.%20Penney%2C%20David%20T.%20Calvis%20%282015%2C%20Pearson%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
+          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory</t>
+          <t>Differential Equations with Applications and Historical Notes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Edgar G Goodaire, Michael M. Parmenter</t>
+          <t>George F. Simmons</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1113,11 +1113,11 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1127,35 +1127,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
+          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications</t>
+          <t>Discrete Mathematics With Graph Theory</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>Edgar G Goodaire, Michael M. Parmenter</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1165,35 +1165,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
+          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
+          <t>Discrete Mathematics and its Applications</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amit Saha</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1203,35 +1203,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
+          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Elementary Analysis: The Theory of Calculus</t>
+          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kenneth A. Ross</t>
+          <t>Amit Saha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1241,35 +1241,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
+          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra</t>
+          <t>Elementary Analysis: The Theory of Calculus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stephen Andrilli, David Hecker</t>
+          <t>Kenneth A. Ross</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Elsevier (Academic Press)</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1279,35 +1279,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
+          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elementary Number Theory</t>
+          <t>Elementary Linear Algebra</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>David M. Burton</t>
+          <t>Stephen Andrilli, David Hecker</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>McGraw-Hill Higher Education</t>
+          <t>Elsevier (Academic Press)</t>
         </is>
       </c>
     </row>
@@ -1317,27 +1317,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
+          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications</t>
+          <t>Elementary Number Theory</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>David M. Burton</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>McGraw-Hill Higher Education</t>
         </is>
       </c>
     </row>
@@ -1355,35 +1355,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
+          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis</t>
+          <t>Elementary Number Theory and Its Applications</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1393,22 +1393,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
+          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis</t>
+          <t>Elementary Real Analysis</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Charles G. Denlinger</t>
+          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jones and Bartlett</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1431,22 +1431,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
+          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations</t>
+          <t>Elements of Real Analysis</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leonard Eugene Dickson</t>
+          <t>Charles G. Denlinger</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Gutenberg</t>
+          <t>Jones and Bartlett</t>
         </is>
       </c>
     </row>
@@ -1469,22 +1469,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
+          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Graph Theory</t>
+          <t>First Course in the Theory of Equations</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>J. A. Bondy, U. S. R. Murty</t>
+          <t>Leonard Eugene Dickson</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1493,11 +1493,11 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Gutenberg</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
+          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1517,21 +1517,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Reinhard Diestel</t>
+          <t>J. A. Bondy, U. S. R. Murty</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1545,35 +1545,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory</t>
+          <t>Graph Theory</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Douglas B. West</t>
+          <t>Reinhard Diestel</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1583,22 +1583,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
+          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order</t>
+          <t>Introduction to Graph Theory</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B. A. Davey, H. A. Priestley</t>
+          <t>Douglas B. West</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1621,35 +1621,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
+          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis</t>
+          <t>Introduction to Lattices and Order</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Robert G. Bartle, Donald R. Sherbert</t>
+          <t>B. A. Davey, H. A. Priestley</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
     </row>
@@ -1659,35 +1659,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
+          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics</t>
+          <t>Introduction to Real Analysis</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
+          <t>Robert G. Bartle, Donald R. Sherbert</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1974</v>
+        <v>2011</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1697,35 +1697,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
+          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lattice Theory</t>
+          <t>Introduction to the Theory of Statistics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
+          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Elsevier</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1735,35 +1735,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
+          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Lattice Theory</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
+          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2003</v>
+        <v>1968</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Elsevier</t>
         </is>
       </c>
     </row>
@@ -1811,35 +1811,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
+          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
+          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1849,35 +1849,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
+          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
+          <t>Linear Algebra and Its Applications</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Peter Farrell</t>
+          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1887,35 +1887,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
+          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
+          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Belinda Barnes, Glenn R. Fulford</t>
+          <t>Peter Farrell</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1925,35 +1925,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Number Theory</t>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>George E. Andrews</t>
+          <t>Belinda Barnes, Glenn R. Fulford</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1971</v>
+        <v>2015</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Saunders</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1963,35 +1963,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
+          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis</t>
+          <t>Number Theory</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
+          <t>George E. Andrews</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1998</v>
+        <v>1971</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Academic Press</t>
+          <t>Saunders</t>
         </is>
       </c>
     </row>
@@ -2001,35 +2001,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
+          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences</t>
+          <t>Principles of Real Analysis</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jay L. Devore</t>
+          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cengage</t>
+          <t>Academic Press</t>
         </is>
       </c>
     </row>
@@ -2039,35 +2039,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop</t>
+          <t>Probability and Statistics for Engineering and the Sciences</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+          <t>Jay L. Devore</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Packt</t>
+          <t>Cengage</t>
         </is>
       </c>
     </row>
@@ -2077,33 +2077,71 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The Statistics and Calculus with Python Workshop</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Packt</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Topics in Algebra - I. N. Herstein (1975, Wiley) 2nd Edition.pdf</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Topics in Algebra</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>I. N. Herstein</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Topics%20in%20Algebra%20-%20I.%20N.%20Herstein%20%281975%2C%20Wiley%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>1975</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems - Computing and Modeling -  C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
+          <t>Differential Equations and Boundary Value Problems - Computing and Modeling - C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C. Henry Edwards, David E. Penney, David T. Calvis</t>
+          <t>C. Henry Edwards, David E. Penney, David T. Calvis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">

--- a/database.xlsx
+++ b/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,35 +1051,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems - Computing and Modeling - C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
+          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems: Computing and Modeling</t>
+          <t>Differential Equations with Applications and Historical Notes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C. Henry Edwards, David E. Penney, David T. Calvis</t>
+          <t>George F. Simmons</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Boundary%20Value%20Problems%20-%20Computing%20and%20Modeling%20-%20%20C.%20Henry%20Edwards%2C%20David%20E.%20Penney%2C%20David%20T.%20Calvis%20%282015%2C%20Pearson%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
+          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes</t>
+          <t>Discrete Mathematics With Graph Theory</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>George F. Simmons</t>
+          <t>Edgar G Goodaire, Michael M. Parmenter</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1113,11 +1113,11 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1127,35 +1127,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
+          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory</t>
+          <t>Discrete Mathematics and its Applications</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Edgar G Goodaire, Michael M. Parmenter</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1165,35 +1165,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
+          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications</t>
+          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>Amit Saha</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1203,35 +1203,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
+          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
+          <t>Elementary Analysis: The Theory of Calculus</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Amit Saha</t>
+          <t>Kenneth A. Ross</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1241,35 +1241,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
+          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Elementary Analysis: The Theory of Calculus</t>
+          <t>Elementary Linear Algebra</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kenneth A. Ross</t>
+          <t>Stephen Andrilli, David Hecker</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Elsevier (Academic Press)</t>
         </is>
       </c>
     </row>
@@ -1279,35 +1279,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
+          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra</t>
+          <t>Elementary Number Theory</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stephen Andrilli, David Hecker</t>
+          <t>David M. Burton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Elsevier (Academic Press)</t>
+          <t>McGraw-Hill Higher Education</t>
         </is>
       </c>
     </row>
@@ -1317,27 +1317,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
+          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory</t>
+          <t>Elementary Number Theory and Its Applications</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>David M. Burton</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>McGraw-Hill Higher Education</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1355,35 +1355,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
+          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications</t>
+          <t>Elementary Real Analysis</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1393,22 +1393,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
+          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis</t>
+          <t>Elements of Real Analysis</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
+          <t>Charles G. Denlinger</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Jones and Bartlett</t>
         </is>
       </c>
     </row>
@@ -1431,22 +1431,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
+          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis</t>
+          <t>First Course in the Theory of Equations</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Charles G. Denlinger</t>
+          <t>Leonard Eugene Dickson</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jones and Bartlett</t>
+          <t>Gutenberg</t>
         </is>
       </c>
     </row>
@@ -1469,22 +1469,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
+          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations</t>
+          <t>Graph Theory</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Leonard Eugene Dickson</t>
+          <t>J. A. Bondy, U. S. R. Murty</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1493,11 +1493,11 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Gutenberg</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
+          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1517,21 +1517,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>J. A. Bondy, U. S. R. Murty</t>
+          <t>Reinhard Diestel</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1545,35 +1545,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
+          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graph Theory</t>
+          <t>Introduction to Graph Theory</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Reinhard Diestel</t>
+          <t>Douglas B. West</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1583,22 +1583,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory</t>
+          <t>Introduction to Lattices and Order</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Douglas B. West</t>
+          <t>B. A. Davey, H. A. Priestley</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
     </row>
@@ -1621,35 +1621,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
+          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order</t>
+          <t>Introduction to Real Analysis</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>B. A. Davey, H. A. Priestley</t>
+          <t>Robert G. Bartle, Donald R. Sherbert</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1659,35 +1659,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
+          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis</t>
+          <t>Introduction to the Theory of Statistics</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Robert G. Bartle, Donald R. Sherbert</t>
+          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2011</v>
+        <v>1974</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1697,35 +1697,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
+          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics</t>
+          <t>Lattice Theory</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
+          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Elsevier</t>
         </is>
       </c>
     </row>
@@ -1735,35 +1735,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
+          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lattice Theory</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
+          <t>Kenneth Hoffman, Ray Kunze</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elsevier</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kenneth Hoffman, Ray Kunze</t>
+          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1971</v>
+        <v>2003</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1811,35 +1811,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
+          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Linear Algebra and Its Applications</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
+          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1849,35 +1849,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
+          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
+          <t>Peter Farrell</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1887,35 +1887,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Peter Farrell</t>
+          <t>Belinda Barnes, Glenn R. Fulford</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1925,35 +1925,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
+          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
+          <t>Number Theory</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Belinda Barnes, Glenn R. Fulford</t>
+          <t>George E. Andrews</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2015</v>
+        <v>1971</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>Saunders</t>
         </is>
       </c>
     </row>
@@ -1963,35 +1963,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
+          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Number Theory</t>
+          <t>Principles of Real Analysis</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>George E. Andrews</t>
+          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1971</v>
+        <v>1998</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Saunders</t>
+          <t>Academic Press</t>
         </is>
       </c>
     </row>
@@ -2001,35 +2001,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
+          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis</t>
+          <t>Probability and Statistics for Engineering and the Sciences</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
+          <t>Jay L. Devore</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1998</v>
+        <v>2016</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Academic Press</t>
+          <t>Cengage</t>
         </is>
       </c>
     </row>
@@ -2039,35 +2039,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
+          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences</t>
+          <t>The Statistics and Calculus with Python Workshop</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jay L. Devore</t>
+          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cengage</t>
+          <t>Packt</t>
         </is>
       </c>
     </row>
@@ -2077,71 +2077,33 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+          <t>Topics in Algebra - I. N. Herstein (1975, Wiley) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop</t>
+          <t>Topics in Algebra</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+          <t>I. N. Herstein</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Topics%20in%20Algebra%20-%20I.%20N.%20Herstein%20%281975%2C%20Wiley%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2020</v>
+        <v>1975</v>
       </c>
       <c r="H44" t="inlineStr">
-        <is>
-          <t>Packt</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Topics in Algebra - I. N. Herstein (1975, Wiley) 2nd Edition.pdf</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Topics in Algebra</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>I. N. Herstein</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Topics%20in%20Algebra%20-%20I.%20N.%20Herstein%20%281975%2C%20Wiley%29%202nd%20Edition.pdf)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1975</v>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>

--- a/database.xlsx
+++ b/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,35 +1051,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
+          <t>Differential Equations and Boundary Value Problems - Computing and Modeling - C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes</t>
+          <t>Differential Equations and Boundary Value Problems: Computing and Modeling</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>George F. Simmons</t>
+          <t>C. Henry Edwards, David E. Penney, David T. Calvis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Boundary%20Value%20Problems%20-%20Computing%20and%20Modeling%20-%20C.%20Henry%20Edwards%2C%20David%20E.%20Penney%2C%20David%20T.%20Calvis%20%282015%2C%20Pearson%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
+          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory</t>
+          <t>Differential Equations with Applications and Historical Notes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Edgar G Goodaire, Michael M. Parmenter</t>
+          <t>George F. Simmons</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1113,11 +1113,11 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1127,35 +1127,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
+          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications</t>
+          <t>Discrete Mathematics With Graph Theory</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>Edgar G Goodaire, Michael M. Parmenter</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1165,35 +1165,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
+          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
+          <t>Discrete Mathematics and its Applications</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amit Saha</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1203,35 +1203,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
+          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Elementary Analysis: The Theory of Calculus</t>
+          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kenneth A. Ross</t>
+          <t>Amit Saha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1241,35 +1241,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
+          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra</t>
+          <t>Elementary Analysis: The Theory of Calculus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stephen Andrilli, David Hecker</t>
+          <t>Kenneth A. Ross</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Elsevier (Academic Press)</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1279,35 +1279,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
+          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elementary Number Theory</t>
+          <t>Elementary Linear Algebra</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>David M. Burton</t>
+          <t>Stephen Andrilli, David Hecker</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>McGraw-Hill Higher Education</t>
+          <t>Elsevier (Academic Press)</t>
         </is>
       </c>
     </row>
@@ -1317,27 +1317,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
+          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications</t>
+          <t>Elementary Number Theory</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>David M. Burton</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>McGraw-Hill Higher Education</t>
         </is>
       </c>
     </row>
@@ -1355,35 +1355,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
+          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis</t>
+          <t>Elementary Number Theory and Its Applications</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1393,22 +1393,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
+          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis</t>
+          <t>Elementary Real Analysis</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Charles G. Denlinger</t>
+          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jones and Bartlett</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1431,22 +1431,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
+          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations</t>
+          <t>Elements of Real Analysis</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Leonard Eugene Dickson</t>
+          <t>Charles G. Denlinger</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Gutenberg</t>
+          <t>Jones and Bartlett</t>
         </is>
       </c>
     </row>
@@ -1469,22 +1469,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
+          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Graph Theory</t>
+          <t>First Course in the Theory of Equations</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>J. A. Bondy, U. S. R. Murty</t>
+          <t>Leonard Eugene Dickson</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1493,11 +1493,11 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Gutenberg</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
+          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1517,21 +1517,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Reinhard Diestel</t>
+          <t>J. A. Bondy, U. S. R. Murty</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1545,35 +1545,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory</t>
+          <t>Graph Theory</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Douglas B. West</t>
+          <t>Reinhard Diestel</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1583,22 +1583,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
+          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order</t>
+          <t>Introduction to Graph Theory</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B. A. Davey, H. A. Priestley</t>
+          <t>Douglas B. West</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1621,35 +1621,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
+          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis</t>
+          <t>Introduction to Lattices and Order</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Robert G. Bartle, Donald R. Sherbert</t>
+          <t>B. A. Davey, H. A. Priestley</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
     </row>
@@ -1659,35 +1659,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
+          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics</t>
+          <t>Introduction to Real Analysis</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
+          <t>Robert G. Bartle, Donald R. Sherbert</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1974</v>
+        <v>2011</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1697,35 +1697,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
+          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lattice Theory</t>
+          <t>Introduction to the Theory of Statistics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
+          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Elsevier</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1735,35 +1735,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Lattice Theory</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kenneth Hoffman, Ray Kunze</t>
+          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Elsevier</t>
         </is>
       </c>
     </row>
@@ -1811,35 +1811,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
+          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Linear Algebra</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
+          <t>Kenneth Hoffman, Ray Kunze</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2016</v>
+        <v>1971</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1849,35 +1849,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
+          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
+          <t>Linear Algebra and Its Applications</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Peter Farrell</t>
+          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1887,35 +1887,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
+          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
+          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Belinda Barnes, Glenn R. Fulford</t>
+          <t>Peter Farrell</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1925,35 +1925,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Number Theory</t>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>George E. Andrews</t>
+          <t>Belinda Barnes, Glenn R. Fulford</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1971</v>
+        <v>2015</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Saunders</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1963,35 +1963,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
+          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis</t>
+          <t>Number Theory</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
+          <t>George E. Andrews</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1998</v>
+        <v>1971</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Academic Press</t>
+          <t>Saunders</t>
         </is>
       </c>
     </row>
@@ -2001,35 +2001,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
+          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences</t>
+          <t>Principles of Real Analysis</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jay L. Devore</t>
+          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cengage</t>
+          <t>Academic Press</t>
         </is>
       </c>
     </row>
@@ -2039,35 +2039,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop</t>
+          <t>Probability and Statistics for Engineering and the Sciences</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+          <t>Jay L. Devore</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Packt</t>
+          <t>Cengage</t>
         </is>
       </c>
     </row>
@@ -2077,33 +2077,71 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The Statistics and Calculus with Python Workshop</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Packt</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Topics in Algebra - I. N. Herstein (1975, Wiley) 2nd Edition.pdf</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Topics in Algebra</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>I. N. Herstein</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Topics%20in%20Algebra%20-%20I.%20N.%20Herstein%20%281975%2C%20Wiley%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>1975</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
+          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1783,21 +1783,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
+          <t>Kenneth Hoffman, Ray Kunze</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2003</v>
+        <v>1971</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1821,21 +1821,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kenneth Hoffman, Ray Kunze</t>
+          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1971</v>
+        <v>2003</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>

--- a/database.xlsx
+++ b/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,35 +595,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abstract Algebra - David S. Dummit, Richard M. Foote (2004, Wiley) 3rd Edition.pdf</t>
+          <t>A First Course in Mathematical Modeling - Frank R. Giordano, William P. Fox, Steven B. Horton (2013, Cengage) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Abstract Algebra</t>
+          <t>A First Course in Mathematical Modeling</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>David S. Dummit, Richard M. Foote</t>
+          <t>Frank R. Giordano, William P. Fox, Steven B. Horton</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/17aX19LRv_N0IoK7lQrzaILxCHS_NCs_e/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/A%20First%20Course%20in%20Mathematical%20Modeling%20-%20Frank%20R.%20Giordano%2C%20William%20P.%20Fox%2C%20Steven%20B.%20Horton%20%282013%2C%20Cengage%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Cengage</t>
         </is>
       </c>
     </row>
@@ -633,31 +633,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Algebra - Michael Artin (2014, Pearson) 2nd Edition.pdf</t>
+          <t>A Friendly Introduction to Numerical Analysis - Brian Bradie (2006, Pearson).pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Algebra</t>
+          <t>A Friendly Introduction to Numerical Analysis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Michael Artin</t>
+          <t>Brian Bradie</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Algebra%20-%20Michael%20Artin%20%282014%2C%20Pearson%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1kyCM4IvmziH3OnmI4yD8tVLh5jz7tKcf/view)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -671,35 +671,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>An Introduction to Analysis - Gerald G. Bilodeau, Paul R. Thie, G. E. Kenough (2010, Jones and Bartlett) 2nd Edition.pdf</t>
+          <t>Abstract Algebra - David S. Dummit, Richard M. Foote (2004, Wiley) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An Introduction to Analysis</t>
+          <t>Abstract Algebra</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gerald G. Bilodeau, Paul R. Thie, G. E. Kenough</t>
+          <t>David S. Dummit, Richard M. Foote</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1t3svnhU23xaq6IcewyC_F7qoNYv4eEAB/view)</t>
+          <t>[Drive](https://drive.google.com/file/d/17aX19LRv_N0IoK7lQrzaILxCHS_NCs_e/view)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Jones and Bartlett</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -709,35 +709,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>An Introduction to the Theory of Groups - Joseph J. Rotman (1995, Springer) 4th Edition.pdf</t>
+          <t>Algebra - Michael Artin (2014, Pearson) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>An Introduction to the Theory of Groups</t>
+          <t>Algebra</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Joseph J. Rotman</t>
+          <t>Michael Artin</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1d_hP2QTHhxXGxBdrbbwGcXTGD0Px9CRE/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Algebra%20-%20Michael%20Artin%20%282014%2C%20Pearson%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -747,22 +747,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Applied Abstract Algebra - Rudolf Lidl, Günter Pilz (1998, Springer) 2nd Edition.pdf</t>
+          <t>An Introduction to Analysis - Gerald G. Bilodeau, Paul R. Thie, G. E. Kenough (2010, Jones and Bartlett) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Applied Abstract Algebra</t>
+          <t>An Introduction to Analysis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rudolf Lidl, Günter Pilz</t>
+          <t>Gerald G. Bilodeau, Paul R. Thie, G. E. Kenough</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applied%20Abstract%20Algebra%20-%20Rudolf%20Lidl%2C%20G%C3%BCnter%20Pilz%20%281998%2C%20Springer%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1t3svnhU23xaq6IcewyC_F7qoNYv4eEAB/view)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,11 +771,11 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Jones and Bartlett</t>
         </is>
       </c>
     </row>
@@ -785,35 +785,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Applying Math with Python - Sam Morley (2022, Packt) 2nd Edition.pdf</t>
+          <t>An Introduction to Mathematical Biology - Linda J. S. Allen (2006, Pearson).pdf</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Applying Math with Python</t>
+          <t>An Introduction to Mathematical Biology</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sam Morley</t>
+          <t>Linda J. S. Allen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applying%20Math%20with%20Python%20-%20Sam%20Morley%20%282022%2C%20Packt%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/An%20Introduction%20to%20Mathematical%20Biology%20-%20Linda%20J.%20S.%20Allen%20%282006%2C%20Pearson%29.pdf)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Packt</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -823,35 +823,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calculus - Howard Anton, Irl Bivens, Stephen Davis (2012, Wiley) 10th Edition.pdf</t>
+          <t>An Introduction to the Theory of Groups - Joseph J. Rotman (1995, Springer) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Calculus</t>
+          <t>An Introduction to the Theory of Groups</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Howard Anton, Irl Bivens, Stephen Davis</t>
+          <t>Joseph J. Rotman</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Calculus%20-%20Howard%20Anton%2C%20Irl%20Bivens%2C%20Stephen%20Davis%20%282012%2C%20Wiley%29%2010th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1d_hP2QTHhxXGxBdrbbwGcXTGD0Px9CRE/view)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10th</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -861,35 +861,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Calculus - One-Variable Calculus with an Introduction to Linear Algebra - Tom M. Apostol (1967, Wiley) 2nd Edition Vol I.pdf</t>
+          <t>An Invitation to Biomathematics - Raina S. Robeva, et al. (2008, Academic Press).pdf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Calculus: One-Variable Calculus with an Introduction to Linear Algebra</t>
+          <t>An Invitation to Biomathematics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tom M. Apostol</t>
+          <t>Raina S. Robeva, et al.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/17-8xwX4H_W3R6H63dPH6T2P9wFMLGiuV/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/An%20Invitation%20to%20Biomathematics%20-%20Raina%20S.%20Robeva%2C%20et%20al.%20%282008%2C%20Academic%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2nd, Vol I</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1967</v>
+        <v>2008</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Academic Press</t>
         </is>
       </c>
     </row>
@@ -899,22 +899,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Complex Numbers from A to ... Z - Titu Andreescu, Dorin Andrica (2014, Birkhäuser) 2nd Edition.pdf</t>
+          <t>Applied Abstract Algebra - Rudolf Lidl, Günter Pilz (1998, Springer) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Complex Numbers from A to ... Z</t>
+          <t>Applied Abstract Algebra</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Titu Andreescu, Dorin Andrica</t>
+          <t>Rudolf Lidl, Günter Pilz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Complex%20Numbers%20from%20A%20to%20...%20Z%20-%20Titu%20Andreescu%2C%20Dorin%20Andrica%20%282014%2C%20Birkh%C3%A4user%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applied%20Abstract%20Algebra%20-%20Rudolf%20Lidl%2C%20G%C3%BCnter%20Pilz%20%281998%2C%20Springer%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -923,11 +923,11 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Birkhäuser</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -937,35 +937,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Contemporary Abstract Algebra - Joseph Gallian (2017, Cengage) 9th Edition.pdf</t>
+          <t>Applied Numerical Analysis - Curtis F. Gerald, Patrick O. Wheatley (2004, Pearson) 7th Edition.pdf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Contemporary Abstract Algebra</t>
+          <t>Applied Numerical Analysis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Joseph Gallian</t>
+          <t>Curtis F. Gerald, Patrick O. Wheatley</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Contemporary%20Abstract%20Algebra%20-%20Joseph%20Gallian%20%282017%2C%20Cengage%29%209th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applied%20Numerical%20Analysis%20-%20Curtis%20F.%20Gerald%2C%20Patrick%20O.%20Wheatley%20%282004%2C%20Pearson%29%207th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cengage</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -975,35 +975,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Differential Calculus - Dr. Gorakh Prasad (2016, Pothishala) 19th Edition.pdf</t>
+          <t>Applying Math with Python - Sam Morley (2022, Packt) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Differential Calculus</t>
+          <t>Applying Math with Python</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dr. Gorakh Prasad</t>
+          <t>Sam Morley</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1iD277hxbqSSqPHbgD8cnE2WCBQLuE603/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Applying%20Math%20with%20Python%20-%20Sam%20Morley%20%282022%2C%20Packt%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pothishala</t>
+          <t>Packt</t>
         </is>
       </c>
     </row>
@@ -1013,35 +1013,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Differential Equations - Shepley L. Ross (1984, Wiley) 3rd Edition.pdf</t>
+          <t>Basic Multivariable Calculus - J. E. Marsden, A. Tromba, A. Weinstein (1993, Springer).pdf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Basic Multivariable Calculus</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Shepley L. Ross</t>
+          <t>J. E. Marsden, A. Tromba, A. Weinstein</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/19ApBnoAd7LlHEJ3D-igEHjpq2hqBV-ku/view)</t>
+          <t>[Drive](https://drive.google.com/file/d/1yshaEaKzLjBJD33eFRuQhHvuYPDccLoe/view)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1984</v>
+        <v>1993</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1051,35 +1051,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems - Computing and Modeling - C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
+          <t>Calculus - Howard Anton, Irl Bivens, Stephen Davis (2012, Wiley) 10th Edition.pdf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Differential Equations and Boundary Value Problems: Computing and Modeling</t>
+          <t>Calculus</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C. Henry Edwards, David E. Penney, David T. Calvis</t>
+          <t>Howard Anton, Irl Bivens, Stephen Davis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Boundary%20Value%20Problems%20-%20Computing%20and%20Modeling%20-%20C.%20Henry%20Edwards%2C%20David%20E.%20Penney%2C%20David%20T.%20Calvis%20%282015%2C%20Pearson%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Calculus%20-%20Howard%20Anton%2C%20Irl%20Bivens%2C%20Stephen%20Davis%20%282012%2C%20Wiley%29%2010th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>10th</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1089,35 +1089,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
+          <t>Calculus - Monty J. Strauss, Gerald L. Bradley, Karl J. Smith (2006, Pearson) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Differential Equations with Applications and Historical Notes</t>
+          <t>Calculus</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>George F. Simmons</t>
+          <t>Monty J. Strauss, Gerald L. Bradley, Karl J. Smith</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1xK_RBxpBZUo0bKZdPkVz_HLaKTW1aK2I/view)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1127,35 +1127,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
+          <t>Calculus - One-Variable Calculus with an Introduction to Linear Algebra - Tom M. Apostol (1967, Wiley) 2nd Edition Vol I.pdf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Discrete Mathematics With Graph Theory</t>
+          <t>Calculus: One-Variable Calculus with an Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Edgar G Goodaire, Michael M. Parmenter</t>
+          <t>Tom M. Apostol</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/17-8xwX4H_W3R6H63dPH6T2P9wFMLGiuV/view)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd, Vol I</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2006</v>
+        <v>1967</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1165,35 +1165,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
+          <t>Complex Numbers from A to ... Z - Titu Andreescu, Dorin Andrica (2014, Birkhäuser) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Discrete Mathematics and its Applications</t>
+          <t>Complex Numbers from A to ... Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>Titu Andreescu, Dorin Andrica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Complex%20Numbers%20from%20A%20to%20...%20Z%20-%20Titu%20Andreescu%2C%20Dorin%20Andrica%20%282014%2C%20Birkh%C3%A4user%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Birkhäuser</t>
         </is>
       </c>
     </row>
@@ -1203,35 +1203,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
+          <t>Contemporary Abstract Algebra - Joseph Gallian (2017, Cengage) 9th Edition.pdf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
+          <t>Contemporary Abstract Algebra</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Amit Saha</t>
+          <t>Joseph Gallian</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Contemporary%20Abstract%20Algebra%20-%20Joseph%20Gallian%20%282017%2C%20Cengage%29%209th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9th</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>Cengage</t>
         </is>
       </c>
     </row>
@@ -1241,35 +1241,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
+          <t>Differential Calculus - Dr. Gorakh Prasad (2016, Pothishala) 19th Edition.pdf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Elementary Analysis: The Theory of Calculus</t>
+          <t>Differential Calculus</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kenneth A. Ross</t>
+          <t>Dr. Gorakh Prasad</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1iD277hxbqSSqPHbgD8cnE2WCBQLuE603/view)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>19th</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>Pothishala</t>
         </is>
       </c>
     </row>
@@ -1279,35 +1279,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
+          <t>Differential Equations - Shepley L. Ross (1984, Wiley) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elementary Linear Algebra</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stephen Andrilli, David Hecker</t>
+          <t>Shepley L. Ross</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/19ApBnoAd7LlHEJ3D-igEHjpq2hqBV-ku/view)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Elsevier (Academic Press)</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -1317,35 +1317,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
+          <t>Differential Equations and Boundary Value Problems - Computing and Modeling - C. Henry Edwards, David E. Penney, David T. Calvis (2015, Pearson) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elementary Number Theory</t>
+          <t>Differential Equations and Boundary Value Problems: Computing and Modeling</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>David M. Burton</t>
+          <t>C. Henry Edwards, David E. Penney, David T. Calvis</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Boundary%20Value%20Problems%20-%20Computing%20and%20Modeling%20-%20C.%20Henry%20Edwards%2C%20David%20E.%20Penney%2C%20David%20T.%20Calvis%20%282015%2C%20Pearson%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>McGraw-Hill Higher Education</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1355,35 +1355,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
+          <t>Differential Equations and Mathematical Biology - D. S. Jones, M. J. Plank, B. D. Sleeman (2009, CRC) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Elementary Number Theory and Its Applications</t>
+          <t>Differential Equations and Mathematical Biology</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kenneth H. Rosen</t>
+          <t>D. S. Jones, M. J. Plank, B. D. Sleeman</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20and%20Mathematical%20Biology%20-%20D.%20S.%20Jones%2C%20M.%20J.%20Plank%2C%20B.%20D.%20Sleeman%20%282009%2C%20CRC%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1393,35 +1393,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
+          <t>Differential Equations with Applications and Historical Notes - George F. Simmons (2017, CRC) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elementary Real Analysis</t>
+          <t>Differential Equations with Applications and Historical Notes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
+          <t>George F. Simmons</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Differential%20Equations%20with%20Applications%20and%20Historical%20Notes%20-%20George%20F.%20Simmons%20%282017%2C%20CRC%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1431,35 +1431,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
+          <t>Discrete Mathematics With Graph Theory - Edgar G Goodaire, Michael M. Parmenter (2006, Pearson) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Elements of Real Analysis</t>
+          <t>Discrete Mathematics With Graph Theory</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Charles G. Denlinger</t>
+          <t>Edgar G Goodaire, Michael M. Parmenter</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20With%20Graph%20Theory%20-%20Edgar%20G%20Goodaire%2C%20Michael%20M.%20Parmenter%20%282006%2C%20Pearson%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jones and Bartlett</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1469,35 +1469,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
+          <t>Discrete Mathematics and its Applications - Kenneth H. Rosen (2019, McGraw-Hill) 8th Edition.pdf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>First Course in the Theory of Equations</t>
+          <t>Discrete Mathematics and its Applications</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Leonard Eugene Dickson</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Discrete%20Mathematics%20and%20its%20Applications%20-%20Kenneth%20H.%20Rosen%20%282019%2C%20McGraw-Hill%29%208th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8th</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Gutenberg</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1507,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
+          <t>Doing Math with Python - Use Programming to Explore Algebra, Statistics, Calculus, and More - Amit Saha (2015, No Starch Press).pdf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Graph Theory</t>
+          <t>Doing Math with Python: Use Programming to Explore Algebra, Statistics, Calculus, and More</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>J. A. Bondy, U. S. R. Murty</t>
+          <t>Amit Saha</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Doing%20Math%20with%20Python%20-%20Use%20Programming%20to%20Explore%20Algebra%2C%20Statistics%2C%20Calculus%2C%20and%20More%20-%20Amit%20Saha%20%282015%2C%20No%20Starch%20Press%29.pdf)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1531,11 +1531,11 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Springer</t>
+          <t>No Starch Press</t>
         </is>
       </c>
     </row>
@@ -1545,31 +1545,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
+          <t>Elementary Analysis - The Theory of Calculus - Kenneth A. Ross (2013, Springer) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graph Theory</t>
+          <t>Elementary Analysis: The Theory of Calculus</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Reinhard Diestel</t>
+          <t>Kenneth A. Ross</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Analysis%20-%20The%20Theory%20of%20Calculus%20-%20Kenneth%20A.%20Ross%20%282013%2C%20Springer%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1583,35 +1583,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
+          <t>Elementary Linear Algebra - Stephen Andrilli, David Hecker (2016, Elsevier (Academic Press)) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Introduction to Graph Theory</t>
+          <t>Elementary Linear Algebra</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Douglas B. West</t>
+          <t>Stephen Andrilli, David Hecker</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Linear%20Algebra%20-%20Stephen%20Andrilli%2C%20David%20Hecker%20%282016%2C%20Elsevier%20%28Academic%20Press%29%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Elsevier (Academic Press)</t>
         </is>
       </c>
     </row>
@@ -1621,35 +1621,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
+          <t>Elementary Number Theory - David M. Burton (2011, McGraw-Hill Higher Education) 7th Edition.pdf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Introduction to Lattices and Order</t>
+          <t>Elementary Number Theory</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>B. A. Davey, H. A. Priestley</t>
+          <t>David M. Burton</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Number%20Theory%20-%20David%20M.%20Burton%20%282011%2C%20McGraw-Hill%20Higher%20Education%29%207th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>McGraw-Hill Higher Education</t>
         </is>
       </c>
     </row>
@@ -1659,27 +1659,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
+          <t>Elementary Number Theory and Its Applications - Kenneth H. Rosen (2011, Pearson) 6th Edition.pdf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Introduction to Real Analysis</t>
+          <t>Elementary Number Theory and Its Applications</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Robert G. Bartle, Donald R. Sherbert</t>
+          <t>Kenneth H. Rosen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/124ATSmeaSMIEBlzcBz6phF2sNfwKPmAt/view)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>6th</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Pearson</t>
         </is>
       </c>
     </row>
@@ -1697,35 +1697,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
+          <t>Elementary Real Analysis - Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner (2001, Prentice Hall).pdf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Introduction to the Theory of Statistics</t>
+          <t>Elementary Real Analysis</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
+          <t>Brian S. Thomson, Judith B. Bruckner, Andrew M. Bruckner</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Elementary%20Real%20Analysis%20-%20Brian%20S.%20Thomson%2C%20Judith%20B.%20Bruckner%2C%20Andrew%20M.%20Bruckner%20%282001%2C%20Prentice%20Hall%29.pdf)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1974</v>
+        <v>2001</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>McGraw-Hill</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1735,35 +1735,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
+          <t>Elements of Real Analysis - Charles G. Denlinger (2011, Jones and Bartlett).pdf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lattice Theory</t>
+          <t>Elements of Real Analysis</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
+          <t>Charles G. Denlinger</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1voz6PBkQ4Nl2YUUjkTZmu7AbfxpPijeT/view)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1968</v>
+        <v>2011</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Elsevier</t>
+          <t>Jones and Bartlett</t>
         </is>
       </c>
     </row>
@@ -1773,35 +1773,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
+          <t>First Course in the Theory of Equations - Leonard Eugene Dickson (2009, Gutenberg).pdf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>First Course in the Theory of Equations</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kenneth Hoffman, Ray Kunze</t>
+          <t>Leonard Eugene Dickson</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/First%20Course%20in%20the%20Theory%20of%20Equations%20-%20Leonard%20Eugene%20Dickson%20%282009%2C%20Gutenberg%29.pdf)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1971</v>
+        <v>2009</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Gutenberg</t>
         </is>
       </c>
     </row>
@@ -1811,35 +1811,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
+          <t>Graph Theory - Reinhard Diestel (2017, Springer) 5th Edition.pdf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Linear Algebra</t>
+          <t>Graph Theory</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
+          <t>Reinhard Diestel</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20Reinhard%20Diestel%20%282017%2C%20Springer%29%205th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Prentice Hall</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1849,35 +1849,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
+          <t>Graph Theory - J. A. Bondy, U. S. R. Murty (2008, Springer).pdf</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Graph Theory</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
+          <t>J. A. Bondy, U. S. R. Murty</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Graph%20Theory%20-%20J.%20A.%20Bondy%2C%20U.%20S.%20R.%20Murty%20%282008%2C%20Springer%29.pdf)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pearson</t>
+          <t>Springer</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
+          <t>Hydrotatics - A. S. Ramsey (1936, Cambridge University Press).pdf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
+          <t>Hydrotatics</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Peter Farrell</t>
+          <t>A. S. Ramsey</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1dagYf80kaAK_XfOFk5gojmqky9EMO_az/view)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2019</v>
+        <v>1936</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Starch Press</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
     </row>
@@ -1925,35 +1925,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
+          <t>Introduction to Graph Theory - Douglas B. West (2002, Prentice Hall) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
+          <t>Introduction to Graph Theory</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Belinda Barnes, Glenn R. Fulford</t>
+          <t>Douglas B. West</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
+          <t>[Drive](https://drive.google.com/file/d/1w-Wt1ruglIJzfvHORMl08YaQkIfw8VpB/view)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>Prentice Hall</t>
         </is>
       </c>
     </row>
@@ -1963,35 +1963,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
+          <t>Introduction to Lattices and Order - B. A. Davey, H. A. Priestley (2002, Cambridge University Press) 2nd Edition.pdf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Number Theory</t>
+          <t>Introduction to Lattices and Order</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>George E. Andrews</t>
+          <t>B. A. Davey, H. A. Priestley</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Lattices%20and%20Order%20-%20B.%20A.%20Davey%2C%20H.%20A.%20Priestley%20%282002%2C%20Cambridge%20University%20Press%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1971</v>
+        <v>2002</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Saunders</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
     </row>
@@ -2001,35 +2001,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
+          <t>Introduction to Real Analysis - Robert G. Bartle, Donald R. Sherbert (2011, Wiley) 4th Edition.pdf</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Principles of Real Analysis</t>
+          <t>Introduction to Real Analysis</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
+          <t>Robert G. Bartle, Donald R. Sherbert</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20Real%20Analysis%20-%20Robert%20G.%20Bartle%2C%20Donald%20R.%20Sherbert%20%282011%2C%20Wiley%29%204th%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Academic Press</t>
+          <t>Wiley</t>
         </is>
       </c>
     </row>
@@ -2039,35 +2039,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
+          <t>Introduction to the Theory of Statistics - Alexander M. Mood, Franklin A. Graybill, Duane C. Boes (1974, McGraw-Hill) 3rd Edition.pdf</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Probability and Statistics for Engineering and the Sciences</t>
+          <t>Introduction to the Theory of Statistics</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jay L. Devore</t>
+          <t>Alexander M. Mood, Franklin A. Graybill, Duane C. Boes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Introduction%20to%20the%20Theory%20of%20Statistics%20-%20Alexander%20M.%20Mood%2C%20Franklin%20A.%20Graybill%2C%20Duane%20C.%20Boes%20%281974%2C%20McGraw-Hill%29%203rd%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9th</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2016</v>
+        <v>1974</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cengage</t>
+          <t>McGraw-Hill</t>
         </is>
       </c>
     </row>
@@ -2077,35 +2077,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+          <t>Lattice Theory - Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton (1968, Elsevier) 1st Edition.pdf</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The Statistics and Calculus with Python Workshop</t>
+          <t>Lattice Theory</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+          <t>Thomas Donnellan, W. J. Langford, E. A. Maxwell, C. Plumpton</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Lattice%20Theory%20-%20Thomas%20Donnellan%2C%20W.%20J.%20Langford%2C%20E.%20A.%20Maxwell%2C%20C.%20Plumpton%20%281968%2C%20Elsevier%29%201st%20Edition.pdf)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2020</v>
+        <v>1968</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Packt</t>
+          <t>Elsevier</t>
         </is>
       </c>
     </row>
@@ -2115,33 +2115,679 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Linear Algebra - Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence (2003, Prentice Hall) 4th Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Stephen H. Friedberg, Arnold J. Insel, Lawrence E. Spence</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Stephen%20H.%20Friedberg%2C%20Arnold%20J.%20Insel%2C%20Lawrence%20E.%20Spence%20%282003%2C%20Prentice%20Hall%29%204th%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Prentice Hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Linear Algebra - Kenneth Hoffman, Ray Kunze (1971, Prentice Hall) 2nd Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Kenneth Hoffman, Ray Kunze</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Linear%20Algebra%20-%20Kenneth%20Hoffman%2C%20Ray%20Kunze%20%281971%2C%20Prentice%20Hall%29%202nd%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1971</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Prentice Hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Linear Algebra and Its Applications - David C. Lay, Steven R. Lay, Judith McDonald (2016, Pearson) 5th Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Linear Algebra and Its Applications</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>David C. Lay, Steven R. Lay, Judith McDonald</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[Drive](https://drive.google.com/file/d/1hSQ9SBrRGIkpPUuszLx2roZuD_85FzUI/view)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Math Adventures with Python - An Illustrated Guide to Exploring Math with Code - Peter Farrell (2019, No Starch Press).pdf</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Math Adventures with Python: An Illustrated Guide to Exploring Math with Code</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Peter Farrell</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Math%20Adventures%20with%20Python%20-%20An%20Illustrated%20Guide%20to%20Exploring%20Math%20with%20Code%20-%20Peter%20Farrell%20%282019%2C%20No%20Starch%20Press%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No Starch Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mathematical Biology - An Introduction - J. D. Murray (2002, Springer) 3rd Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mathematical Biology: An Introduction</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>J. D. Murray</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Biology%20-%20An%20Introduction%20-%20J.%20D.%20Murray%20%282002%2C%20Springer%29%203rd%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mathematical Biology - An Introduction with Maple and MATLAB - Ronald W. Shonkwiler, James Herod (2009, Springer) 2nd Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mathematical Biology: An Introduction with Maple and MATLAB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ronald W. Shonkwiler, James Herod</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Biology%20-%20An%20Introduction%20with%20Maple%20and%20MATLAB%20-%20Ronald%20W.%20Shonkwiler%2C%20James%20Herod%20%282009%2C%20Springer%29%202nd%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mathematical Modelling With Differential Equations - Ronald E. Mickens (2022, CRC).pdf</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mathematical Modelling With Differential Equations</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ronald E. Mickens</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20With%20Differential%20Equations%20-%20Ronald%20E.%20Mickens%20%282022%2C%20CRC%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB - Belinda Barnes, Glenn R. Fulford (2015, CRC) 3rd Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Mathematical Modelling with Case Studies. Using Maple, MATLAB</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Belinda Barnes, Glenn R. Fulford</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Modelling%20with%20Case%20Studies.%20Using%20Maple%2C%20MATLAB%20-%20Belinda%20Barnes%2C%20Glenn%20R.%20Fulford%20%282015%2C%20CRC%29%203rd%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mathematical Models in Biology - An Introduction - Elizabeth S. Allman, John A. Rhodes (2004, Cambridge University Press).pdf</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mathematical Models in Biology: An Introduction</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Elizabeth S. Allman, John A. Rhodes</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Mathematical%20Models%20in%20Biology%20-%20An%20Introduction%20-%20Elizabeth%20S.%20Allman%2C%20John%20A.%20Rhodes%20%282004%2C%20Cambridge%20University%20Press%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Cambridge University Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Number Theory - George E. Andrews (1971, Saunders).pdf</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Number Theory</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>George E. Andrews</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Number%20Theory%20-%20George%20E.%20Andrews%20%281971%2C%20Saunders%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1971</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Saunders</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Numerical Methods for Scientific and Engineering Computation - M. K. Jain, S. R. K. Iyengar, R. K. Jain (2016, New Age) 6th Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Numerical Methods for Scientific and Engineering Computation</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M. K. Jain, S. R. K. Iyengar, R. K. Jain</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[Drive](https://drive.google.com/file/d/1V7W7yzwCbERJyJ2BOzEXrNcOVbQoCx0i/view)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>New Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Principles of Mechanics - J. L. Synge, B. A. Griffith (1942, McGraw-Hill) 1st Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Principles of Mechanics</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>J. L. Synge, B. A. Griffith</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[Drive](https://drive.google.com/file/d/1nFrX5qjHeYpJehln02xL1bNxNrwGxY-T/view)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1942</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>McGraw-Hill</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Principles of Real Analysis - Charalambos D. Aliprantis, Owen Burkinshaw (1998, Academic Press) 3rd Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Principles of Real Analysis</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Charalambos D. Aliprantis, Owen Burkinshaw</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Principles%20of%20Real%20Analysis%20-%20Charalambos%20D.%20Aliprantis%2C%20Owen%20Burkinshaw%20%281998%2C%20Academic%20Press%29%203rd%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Academic Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Probability and Statistics for Engineering and the Sciences - Jay L. Devore (2016, Cengage) 9th Edition.pdf</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Probability and Statistics for Engineering and the Sciences</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Jay L. Devore</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Probability%20and%20Statistics%20for%20Engineering%20and%20the%20Sciences%20-%20Jay%20L.%20Devore%20%282016%2C%20Cengage%29%209th%20Edition.pdf)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9th</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Cengage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Statics - A. S. Ramsey (1945, Cambridge University Press).pdf</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Statics</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A. S. Ramsey</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[Drive](https://drive.google.com/file/d/1UXKymFHrhOo_w714EOJ1KUDraG8PppPl/view)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1945</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Cambridge University Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Statics and Dynamics with Background Mathematics - A. P. Roberts (2003, Cambridge University Press).pdf</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Statics and Dynamics with Background Mathematics</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A. P. Roberts</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Statics%20and%20Dynamics%20with%20Background%20Mathematics%20-%20A.%20P.%20Roberts%20%282003%2C%20Cambridge%20University%20Press%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Cambridge University Press</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>The Statistics and Calculus with Python Workshop - Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos (2020, Packt).pdf</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The Statistics and Calculus with Python Workshop</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Peter Farrell, Alvaro Fuentes, Ajinkya Sudhir Kolhe, Quan Nguyen, Alexander Joseph Sarver, Marios Tsatsos</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/The%20Statistics%20and%20Calculus%20with%20Python%20Workshop%20-%20Peter%20Farrell%2C%20Alvaro%20Fuentes%2C%20Ajinkya%20Sudhir%20Kolhe%2C%20Quan%20Nguyen%2C%20Alexander%20Joseph%20Sarver%2C%20Marios%20Tsatsos%20%282020%2C%20Packt%29.pdf)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Packt</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Topics in Algebra - I. N. Herstein (1975, Wiley) 2nd Edition.pdf</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Topics in Algebra</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>I. N. Herstein</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>[GitHub](https://raw.githubusercontent.com/malloc42/cool-maths-books/main/Books/Topics%20in%20Algebra%20-%20I.%20N.%20Herstein%20%281975%2C%20Wiley%29%202nd%20Edition.pdf)</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G62" t="n">
         <v>1975</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hydrotatics - A. S. Ramsey (1936, Cambridge University Press).pdf</t>
+          <t>Hydrostatics - A. S. Ramsey (1936, Cambridge University Press).pdf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hydrotatics</t>
+          <t>Hydrostatics</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
